--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2586030E-487A-4C18-A2CF-BEB77CB3409F}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE6F3BB3-121B-41E4-AAB6-FE275E233CEF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="179">
   <si>
     <t>variable</t>
   </si>
@@ -505,6 +505,72 @@
   </si>
   <si>
     <t>Updates</t>
+  </si>
+  <si>
+    <t>try_later</t>
+  </si>
+  <si>
+    <t>sort_mode</t>
+  </si>
+  <si>
+    <t>alphabet</t>
+  </si>
+  <si>
+    <t>regen_list</t>
+  </si>
+  <si>
+    <t>auto_number_clusters</t>
+  </si>
+  <si>
+    <t>number_of_clusters</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>menu_settings_causal_rel_mode</t>
+  </si>
+  <si>
+    <t>beta_mode</t>
+  </si>
+  <si>
+    <t>incorrect_value_num_clusters</t>
+  </si>
+  <si>
+    <t>Try later</t>
+  </si>
+  <si>
+    <t>Alphabet</t>
+  </si>
+  <si>
+    <t>Regenerate list</t>
+  </si>
+  <si>
+    <t>Autogenerate number of clusters</t>
+  </si>
+  <si>
+    <t>Number of clusters</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>Beta mode</t>
+  </si>
+  <si>
+    <t>Incorrect value of the number of clusters</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Causal relationship mode settings</t>
+  </si>
+  <si>
+    <t>Sort mode</t>
   </si>
 </sst>
 </file>
@@ -869,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1539,6 +1605,94 @@
         <v>156</v>
       </c>
     </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" t="s">
+        <v>175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE6F3BB3-121B-41E4-AAB6-FE275E233CEF}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04B46F1B-1BE2-4510-ADDF-1D856D934F5F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="181">
   <si>
     <t>variable</t>
   </si>
@@ -571,6 +571,12 @@
   </si>
   <si>
     <t>Sort mode</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Group</t>
   </si>
 </sst>
 </file>
@@ -935,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1693,6 +1699,14 @@
         <v>175</v>
       </c>
     </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3031433de2b35f0/Документы/Школа/10 класс/ИУП/languages/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariollex/PycharmProjects/causal-relationships-in-school/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{99FB108A-5243-4AA4-B011-D3A0A281F73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04B46F1B-1BE2-4510-ADDF-1D856D934F5F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56808F0-8281-D449-A16A-FF17A6477A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
+    <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="183">
   <si>
     <t>variable</t>
   </si>
@@ -577,6 +577,12 @@
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>Download and install?</t>
+  </si>
+  <si>
+    <t>download_and_install</t>
   </si>
 </sst>
 </file>
@@ -621,9 +627,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -941,192 +946,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.21875" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1134,7 +1118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1142,7 +1126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -1150,7 +1134,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>118</v>
       </c>
@@ -1158,7 +1142,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1166,7 +1150,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1174,7 +1158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1182,7 +1166,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -1193,7 +1177,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -1207,7 +1191,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1218,7 +1202,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -1226,7 +1210,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1237,7 +1221,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -1245,7 +1229,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1259,7 +1243,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1267,7 +1251,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1275,7 +1259,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -1283,7 +1267,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -1291,7 +1275,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -1299,7 +1283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -1307,7 +1291,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -1315,7 +1299,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1323,7 +1307,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -1331,7 +1315,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -1339,7 +1323,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -1347,7 +1331,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -1355,7 +1339,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -1363,7 +1347,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -1371,7 +1355,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -1379,7 +1363,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -1387,7 +1371,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -1395,7 +1379,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -1403,7 +1387,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -1411,7 +1395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -1419,7 +1403,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -1427,7 +1411,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -1435,7 +1419,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -1443,7 +1427,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -1451,7 +1435,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -1459,7 +1443,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -1467,7 +1451,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -1475,7 +1459,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -1483,7 +1467,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -1491,7 +1475,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -1499,7 +1483,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>130</v>
       </c>
@@ -1507,7 +1491,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -1515,7 +1499,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -1523,7 +1507,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -1531,7 +1515,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>136</v>
       </c>
@@ -1539,7 +1523,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -1547,7 +1531,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -1555,7 +1539,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>143</v>
       </c>
@@ -1563,7 +1547,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>145</v>
       </c>
@@ -1571,7 +1555,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>147</v>
       </c>
@@ -1579,7 +1563,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>148</v>
       </c>
@@ -1587,7 +1571,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>149</v>
       </c>
@@ -1595,7 +1579,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>150</v>
       </c>
@@ -1603,7 +1587,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>151</v>
       </c>
@@ -1611,7 +1595,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -1619,7 +1603,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -1627,7 +1611,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>159</v>
       </c>
@@ -1635,7 +1619,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>160</v>
       </c>
@@ -1643,7 +1627,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>161</v>
       </c>
@@ -1651,7 +1635,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>162</v>
       </c>
@@ -1659,7 +1643,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -1667,7 +1651,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -1675,7 +1659,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -1683,7 +1667,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>166</v>
       </c>
@@ -1691,7 +1675,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>167</v>
       </c>
@@ -1699,12 +1683,20 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>179</v>
       </c>
       <c r="B87" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/languages/strings_en-US.xlsx
+++ b/languages/strings_en-US.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariollex/PycharmProjects/causal-relationships-in-school/languages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56808F0-8281-D449-A16A-FF17A6477A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37C4970-250C-F848-9B0E-A6006C99AB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
+    <workbookView xWindow="34560" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{2183EB7A-A742-4F93-853C-D78DC5D5A0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="185">
   <si>
     <t>variable</t>
   </si>
@@ -501,9 +501,6 @@
     <t>Update check error.</t>
   </si>
   <si>
-    <t>An update is available! Download the updated version from</t>
-  </si>
-  <si>
     <t>Updates</t>
   </si>
   <si>
@@ -583,6 +580,15 @@
   </si>
   <si>
     <t>download_and_install</t>
+  </si>
+  <si>
+    <t>Click to check updates</t>
+  </si>
+  <si>
+    <t>click_to_check_updates</t>
+  </si>
+  <si>
+    <t>An update is available</t>
   </si>
 </sst>
 </file>
@@ -946,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09A64D-0D73-406F-8FF0-73BA9B636368}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1584,7 +1590,7 @@
         <v>150</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1592,111 +1598,119 @@
         <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" t="s">
         <v>179</v>
-      </c>
-      <c r="B87" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s">
         <v>182</v>
-      </c>
-      <c r="B88" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
